--- a/strategy/2024-01-16.xlsx
+++ b/strategy/2024-01-16.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -441,6 +441,9 @@
         <f aca="false">$A3+C3</f>
         <v>45307.0416550926</v>
       </c>
+      <c r="F3" s="1" t="n">
+        <v>200</v>
+      </c>
       <c r="G3" s="1" t="n">
         <v>55</v>
       </c>
@@ -467,6 +470,9 @@
         <f aca="false">$A4+C4</f>
         <v>45307.0833217593</v>
       </c>
+      <c r="F4" s="1" t="n">
+        <v>200</v>
+      </c>
       <c r="G4" s="1" t="n">
         <v>55</v>
       </c>
@@ -494,6 +500,9 @@
         <f aca="false">$A5+C5</f>
         <v>45307.1249884259</v>
       </c>
+      <c r="F5" s="1" t="n">
+        <v>199</v>
+      </c>
       <c r="G5" s="1" t="n">
         <v>55</v>
       </c>
@@ -521,6 +530,9 @@
         <f aca="false">$A6+C6</f>
         <v>45307.1666550926</v>
       </c>
+      <c r="F6" s="1" t="n">
+        <v>197</v>
+      </c>
       <c r="G6" s="1" t="n">
         <v>55</v>
       </c>
@@ -548,6 +560,9 @@
         <f aca="false">$A7+C7</f>
         <v>45307.2083217593</v>
       </c>
+      <c r="F7" s="1" t="n">
+        <v>197</v>
+      </c>
       <c r="G7" s="1" t="n">
         <v>55</v>
       </c>
@@ -575,6 +590,9 @@
         <f aca="false">$A8+C8</f>
         <v>45307.2499884259</v>
       </c>
+      <c r="F8" s="1" t="n">
+        <v>202</v>
+      </c>
       <c r="G8" s="1" t="n">
         <v>55</v>
       </c>
@@ -602,6 +620,9 @@
         <f aca="false">$A9+C9</f>
         <v>45307.2916550926</v>
       </c>
+      <c r="F9" s="1" t="n">
+        <v>240</v>
+      </c>
       <c r="G9" s="1" t="n">
         <v>54.6</v>
       </c>
@@ -629,6 +650,9 @@
         <f aca="false">$A10+C10</f>
         <v>45307.3333217593</v>
       </c>
+      <c r="F10" s="1" t="n">
+        <v>259</v>
+      </c>
       <c r="G10" s="1" t="n">
         <v>54.6</v>
       </c>
@@ -656,6 +680,9 @@
         <f aca="false">$A11+C11</f>
         <v>45307.3749884259</v>
       </c>
+      <c r="F11" s="1" t="n">
+        <v>292</v>
+      </c>
       <c r="G11" s="1" t="n">
         <v>54.6</v>
       </c>
@@ -683,6 +710,9 @@
         <f aca="false">$A12+C12</f>
         <v>45307.4166550926</v>
       </c>
+      <c r="F12" s="1" t="n">
+        <v>292</v>
+      </c>
       <c r="G12" s="1" t="n">
         <v>54.6</v>
       </c>
@@ -710,6 +740,9 @@
         <f aca="false">$A13+C13</f>
         <v>45307.4583217593</v>
       </c>
+      <c r="F13" s="1" t="n">
+        <v>282</v>
+      </c>
       <c r="G13" s="1" t="n">
         <v>54.6</v>
       </c>
@@ -737,6 +770,9 @@
         <f aca="false">$A14+C14</f>
         <v>45307.4999884259</v>
       </c>
+      <c r="F14" s="1" t="n">
+        <v>261</v>
+      </c>
       <c r="G14" s="1" t="n">
         <v>54.6</v>
       </c>
@@ -764,6 +800,9 @@
         <f aca="false">$A15+C15</f>
         <v>45307.5416550926</v>
       </c>
+      <c r="F15" s="1" t="n">
+        <v>248</v>
+      </c>
       <c r="G15" s="1" t="n">
         <v>54.6</v>
       </c>
@@ -791,6 +830,9 @@
         <f aca="false">$A16+C16</f>
         <v>45307.5833217593</v>
       </c>
+      <c r="F16" s="1" t="n">
+        <v>240</v>
+      </c>
       <c r="G16" s="1" t="n">
         <v>54.6</v>
       </c>
@@ -818,6 +860,9 @@
         <f aca="false">$A17+C17</f>
         <v>45307.6249884259</v>
       </c>
+      <c r="F17" s="1" t="n">
+        <v>241</v>
+      </c>
       <c r="G17" s="1" t="n">
         <v>54.6</v>
       </c>
@@ -845,6 +890,9 @@
         <f aca="false">$A18+C18</f>
         <v>45307.6666550926</v>
       </c>
+      <c r="F18" s="1" t="n">
+        <v>255</v>
+      </c>
       <c r="G18" s="1" t="n">
         <v>54.6</v>
       </c>
@@ -872,6 +920,9 @@
         <f aca="false">$A19+C19</f>
         <v>45307.7083217593</v>
       </c>
+      <c r="F19" s="1" t="n">
+        <v>256</v>
+      </c>
       <c r="G19" s="1" t="n">
         <v>54.6</v>
       </c>
@@ -899,7 +950,9 @@
         <f aca="false">$A20+C20</f>
         <v>45307.7499884259</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3" t="n">
+        <v>354</v>
+      </c>
       <c r="G20" s="3" t="n">
         <v>51.6</v>
       </c>
@@ -927,7 +980,9 @@
         <f aca="false">$A21+C21</f>
         <v>45307.7916550926</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="n">
+        <v>353</v>
+      </c>
       <c r="G21" s="3" t="n">
         <v>51.6</v>
       </c>
@@ -955,7 +1010,9 @@
         <f aca="false">$A22+C22</f>
         <v>45307.8333217593</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="n">
+        <v>339</v>
+      </c>
       <c r="G22" s="3" t="n">
         <v>51.6</v>
       </c>
@@ -983,7 +1040,9 @@
         <f aca="false">$A23+C23</f>
         <v>45307.8749884259</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="n">
+        <v>323</v>
+      </c>
       <c r="G23" s="3" t="n">
         <v>51.6</v>
       </c>
@@ -1011,6 +1070,9 @@
         <f aca="false">$A24+C24</f>
         <v>45307.9166550926</v>
       </c>
+      <c r="F24" s="1" t="n">
+        <v>232</v>
+      </c>
       <c r="G24" s="1" t="n">
         <v>55</v>
       </c>
@@ -1038,6 +1100,9 @@
         <f aca="false">$A25+C25</f>
         <v>45307.9583217593</v>
       </c>
+      <c r="F25" s="1" t="n">
+        <v>228</v>
+      </c>
       <c r="G25" s="1" t="n">
         <v>55</v>
       </c>
@@ -1064,6 +1129,9 @@
       <c r="E26" s="6" t="n">
         <f aca="false">$A26+C26</f>
         <v>45307.9999884259</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>224</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>55</v>
